--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_extended.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_extended.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut_aid_in_programTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0381926353170016</v>
+        <v>-0.0394878232656016</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0581656272766591</v>
+        <v>-0.0535787331655111</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0182196433573441</v>
+        <v>-0.0253969133656922</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0351923830184718</v>
+        <v>-0.0354902715916673</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0646681343243997</v>
+        <v>-0.0561453938825939</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00571663171254403</v>
+        <v>-0.0148351493007406</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.015835365899141</v>
+        <v>-0.00133888279740772</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0602527217407954</v>
+        <v>-0.0547185798377679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0919234535390774</v>
+        <v>0.0520408142429524</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0531365313653134</v>
+        <v>-0.034362429933459</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.118616813574127</v>
+        <v>-0.0801901455903655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0123437508435003</v>
+        <v>0.0114652857234475</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.150109986227243</v>
+        <v>-0.121455849923609</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.220664465215105</v>
+        <v>-0.171665703401423</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0795555072393809</v>
+        <v>-0.0712459964457963</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0788398692810459</v>
+        <v>-0.0485188794061111</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.167948464661837</v>
+        <v>-0.112324706905562</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0102687260997452</v>
+        <v>0.0152869480933394</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0412954656204315</v>
+        <v>-0.0997202653908376</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.127174521733862</v>
+        <v>-0.159279311720092</v>
       </c>
       <c r="D8" t="n">
-        <v>0.044583590492999</v>
+        <v>-0.0401612190615832</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0104736634970608</v>
+        <v>-0.0170813422574052</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.063197570585809</v>
+        <v>-0.067562776421911</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0841448975799306</v>
+        <v>0.0334000919071005</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0917378917378921</v>
+        <v>0.112828423953117</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00673970500600278</v>
+        <v>0.0431073154165781</v>
       </c>
       <c r="D10" t="n">
-        <v>0.190215488481787</v>
+        <v>0.182549532489656</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00230088654934933</v>
+        <v>-0.00814719386724725</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0454341765084565</v>
+        <v>-0.038439369729519</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0408324034097579</v>
+        <v>0.0221449819950245</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0663311553876618</v>
+        <v>-0.0675644768188323</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.10117299734791</v>
+        <v>-0.0924854230821806</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0314893134274136</v>
+        <v>-0.0426435305554841</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
